--- a/Regression_comparison/results/metrics_results.xlsx
+++ b/Regression_comparison/results/metrics_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd22871d970c1ebd/Escritorio/Machine_Learning_2/Regression_comparison/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62028ACE-C23A-4442-8E7D-CAA283348638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{7DF438DC-349C-46A3-A8B0-DCE33DDBC80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0CE603D-8E3E-458C-ACCF-3041F471EC51}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{8A96A3EF-2B9F-4CB1-A6DE-55EAFEDFA925}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{11CD17FA-6207-4AC3-9DEF-0595A41D4EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,49 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
-  <si>
-    <t>C_mean</t>
-  </si>
-  <si>
-    <t>epsilon_mean</t>
-  </si>
-  <si>
-    <t>gamma_mean</t>
-  </si>
-  <si>
-    <t>r2_mean</t>
-  </si>
-  <si>
-    <t>r2_mad</t>
-  </si>
-  <si>
-    <t>RMSE_mean</t>
-  </si>
-  <si>
-    <t>RMSE_mad</t>
-  </si>
-  <si>
-    <t>MSE_mean</t>
-  </si>
-  <si>
-    <t>MSE_mad</t>
-  </si>
-  <si>
-    <t>cv</t>
-  </si>
-  <si>
-    <t>time_mean</t>
-  </si>
-  <si>
-    <t>alpha_mean</t>
-  </si>
-  <si>
-    <t>Optim SVR metrics using cross validation with 10 folds and 30 iterations</t>
-  </si>
-  <si>
-    <t>Optim Lasso metrics using cross validation with 10 folds and 30 iterations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>Dataset</t>
   </si>
@@ -88,13 +46,52 @@
   </si>
   <si>
     <t>pyrim</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>LGBMR</t>
+  </si>
+  <si>
+    <t>XGB*</t>
+  </si>
+  <si>
+    <t>mean r² using cross validation with 10 folds and 30 iterations</t>
+  </si>
+  <si>
+    <t>mad r² using cross validation with 10 folds and 30 iterations</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>mean time per iteration using cross validation with 10 folds **</t>
+  </si>
+  <si>
+    <t>mean time per iteration using cross validation with 10 folds**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,14 +100,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,13 +125,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,22 +162,18 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,341 +488,611 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A65CAF3-71B3-4DB0-A4BB-E5EE47C0CF10}">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E7AFAA-A233-4E9B-AA67-BFDDDD711CE5}">
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.93598066953069703</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.74063755159171496</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.98340761635516105</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.98994426773245303</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.99608754638453201</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.93598066953069703</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.73971699999999996</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.74063755159171496</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.93535971399999995</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.98340761635516105</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.98994426773245303</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.99608754638453201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.92447079838814195</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.82146971141554803</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.96581572313339503</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.97780340463355198</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.99407591549105201</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.92447079838814195</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.821241</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.82146971141554803</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.90465653999999995</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.96581572313339503</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.97780340463355198</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.99407591549105201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.71635735457309602</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.82462264716540801</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.96907750629176204</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.61248444215546105</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.90547361105805202</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.71635735457309602</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.807894</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.82462264716540801</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.87295351700000001</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.96907750629176204</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.61248444215546105</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.90547361105805202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.37014716198615E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.6415609847655698E-9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.5456071580758802E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.7690173267984502E-3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.3637660957731201E-3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.37014716198615E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.3204100000000001E-4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2.6415609847655698E-9</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2.0001530000000002E-3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2.5456071580758802E-3</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2.7690173267984502E-3</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2.3637660957731201E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5.4708737580535498E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.8860799857384899E-8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6.74312883308397E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.5973503984321801E-3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.9918631450772302E-3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5.4708737580535498E-3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.30066E-4</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2.8860799857384899E-8</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1.4989300000000001E-3</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6.74312883308397E-3</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3.5973503984321801E-3</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2.9918631450772302E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.4727257567075601E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.2893829309879998E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.61834233670369E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6.4794908986879104E-2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4.4727257567075601E-2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1.11022302462515E-16</v>
+      </c>
+      <c r="L11" s="5">
+        <v>7.2455069999999996E-2</v>
+      </c>
+      <c r="M11" s="5">
+        <v>5.2893829309879998E-3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1.61834233670369E-2</v>
+      </c>
+      <c r="O11" s="5">
+        <v>6.4794908986879104E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B15" s="6">
+        <v>85.937698512766602</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.32593275906671498</v>
+      </c>
+      <c r="D15" s="6">
+        <v>136.16608248333301</v>
+      </c>
+      <c r="E15" s="6">
+        <v>60.377950749966899</v>
+      </c>
+      <c r="F15" s="6">
+        <v>277.43926351806601</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>85.937698512766602</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.32593275906671498</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="6">
+        <v>136.16608248333301</v>
+      </c>
+      <c r="N15" s="6">
+        <v>60.377950749966899</v>
+      </c>
+      <c r="O15" s="6">
+        <v>277.43926351806601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B16" s="6">
+        <v>53.3169679793331</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.30581195003342099</v>
+      </c>
+      <c r="D16" s="6">
+        <v>61.524241216333102</v>
+      </c>
+      <c r="E16" s="6">
+        <v>35.207921473166401</v>
+      </c>
+      <c r="F16" s="6">
+        <v>254.632441374</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>53.3169679793331</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.30581195003342099</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="6">
+        <v>61.524241216333102</v>
+      </c>
+      <c r="N16" s="6">
+        <v>35.207921473166401</v>
+      </c>
+      <c r="O16" s="6">
+        <v>254.632441374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.74333333333333296</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.79166666666666596</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.93598066953069703</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.37014716198615E-2</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2.3095676542368602</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.24275694828066099</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5.4044834636334</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1.1566721528350099</v>
-      </c>
-      <c r="K3" s="6">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3">
-        <v>85.937698512766602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6">
-        <v>15.733333333333301</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.75833333333333297</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.92447079838814195</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5.4708737580535498E-3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2.1406136893680401</v>
-      </c>
-      <c r="H4" s="6">
-        <v>7.7418786117167501E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4.58936112229821</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.33242527121153698</v>
-      </c>
-      <c r="K4" s="6">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3">
-        <v>53.3169679793331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.44166666666666599</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.71635735457309602</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4.4727257567075601E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>6.76397232829168E-2</v>
-      </c>
-      <c r="H5" s="6">
-        <v>5.3666136114247903E-3</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4.6039362239146198E-3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>7.2598900281546901E-4</v>
-      </c>
-      <c r="K5" s="6">
-        <v>10</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="B17" s="6">
         <v>5.6888618911000997</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
+      <c r="C17" s="6">
+        <v>0.33475212699998602</v>
+      </c>
+      <c r="D17" s="6">
+        <v>32.2615995395998</v>
+      </c>
+      <c r="E17" s="6">
+        <v>13.0397941681664</v>
+      </c>
+      <c r="F17" s="6">
+        <v>241.64259435933201</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="6">
+        <v>5.6888618911000997</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1.23483333333333E-3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.74063755159171496</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2.6415609847655698E-9</v>
-      </c>
-      <c r="G11" s="6">
-        <v>4.6792374141737803</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2.3828604008476299E-8</v>
-      </c>
-      <c r="I11" s="3">
-        <v>21.895262778203701</v>
-      </c>
-      <c r="J11" s="4">
-        <v>2.2299940193685499E-7</v>
-      </c>
-      <c r="K11" s="6">
-        <v>10</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.32593275906671498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.23332183908045E-3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.82146971141554803</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2.8860799857384899E-8</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3.2936285809556698</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2.66220256195381E-7</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10.8479892292881</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1.7536612338275799E-6</v>
-      </c>
-      <c r="K12" s="6">
-        <v>10</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.30581195003342099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.235E-3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.82462264716540801</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.11022302462515E-16</v>
-      </c>
-      <c r="G13" s="6">
-        <v>5.3353834967415997E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1.38777878078144E-17</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2.8466317057301901E-3</v>
-      </c>
-      <c r="J13" s="4">
-        <v>8.6736173798840297E-19</v>
-      </c>
-      <c r="K13" s="6">
-        <v>10</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="K17" s="6">
         <v>0.33475212699998602</v>
       </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="5"/>
+      <c r="L17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="6">
+        <v>32.2615995395998</v>
+      </c>
+      <c r="N17" s="6">
+        <v>13.0397941681664</v>
+      </c>
+      <c r="O17" s="6">
+        <v>241.64259435933201</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C9:L9"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H13:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
